--- a/biology/Zoologie/Astroboa/Astroboa.xlsx
+++ b/biology/Zoologie/Astroboa/Astroboa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astroboa est un genre d'ophiures (échinodermes) de la famille des Gorgonocephalidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre se distingue au sein de sa famille par des piquants ne commençant pas avant la quatrième ramification des bras, et des bras qui au niveau basal sont aussi larges que hauts[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre se distingue au sein de sa famille par des piquants ne commençant pas avant la quatrième ramification des bras, et des bras qui au niveau basal sont aussi larges que hauts. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 février 2014)[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 février 2014) : 
 Astroboa albatrossi Döderlein, 1927
 Astroboa arctos Matsumoto, 1915
 Astroboa clavata (Lyman, 1861)
